--- a/biology/Zoologie/Cuacuba_mariana/Cuacuba_mariana.xlsx
+++ b/biology/Zoologie/Cuacuba_mariana/Cuacuba_mariana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuacuba mariana est une espèce d'araignées aranéomorphes de la famille des Theridiosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuacuba mariana est une espèce d'araignées aranéomorphes de la famille des Theridiosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Minas Gerais au Brésil[1],[2]. Elle se rencontre dans des grottes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Minas Gerais au Brésil,. Elle se rencontre dans des grottes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,25 mm et la femelle paratype 3 mm, les mâles mesurent de 1,8 à 2,25 mm et les femelles de 2 à 3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,25 mm et la femelle paratype 3 mm, les mâles mesurent de 1,8 à 2,25 mm et les femelles de 2 à 3 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prete, Cizauskas &amp; Brescovit, 2018 : Three new species of the spider genus Plato and the new genus Cuacuba from caves of the states of Pará and Minas Gerais, Brazil (Araneae, Theridiosomatidae). ZooKeys, no 753, p. 107-162 (texte intégral).</t>
         </is>
